--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_220__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_220__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.78665924072266</c:v>
+                  <c:v>64.78665161132812</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>62.46875762939453</c:v>
@@ -5891,7 +5891,7 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.49957275390625</c:v>
+                  <c:v>44.49957656860352</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>64.67023468017578</c:v>
@@ -5906,7 +5906,7 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.2857666015625</c:v>
+                  <c:v>68.28575897216797</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42.01551055908203</c:v>
@@ -5915,7 +5915,7 @@
                   <c:v>52.7473258972168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.60556030273438</c:v>
+                  <c:v>47.60555648803711</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>47.90096282958984</c:v>
@@ -5933,7 +5933,7 @@
                   <c:v>53.78777694702148</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.17378234863281</c:v>
+                  <c:v>48.17378616333008</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>58.36740875244141</c:v>
@@ -5957,7 +5957,7 @@
                   <c:v>50.49201583862305</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.88765716552734</c:v>
+                  <c:v>72.88766479492188</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>47.91734313964844</c:v>
@@ -5972,13 +5972,13 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.2353630065918</c:v>
+                  <c:v>50.23535919189453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.54349136352539</c:v>
+                  <c:v>58.54349899291992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>74.85118103027344</c:v>
+                  <c:v>74.85117340087891</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>42.01551055908203</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>52.79400634765625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>54.64583969116211</c:v>
+                  <c:v>54.64584350585938</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>42.01551055908203</c:v>
@@ -6026,7 +6026,7 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64.75618743896484</c:v>
+                  <c:v>64.75619506835938</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>74.33016967773438</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>67.06143188476562</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>58.03444671630859</c:v>
+                  <c:v>58.03445053100586</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>52.06792831420898</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>78.29338836669922</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>70.38535308837891</c:v>
+                  <c:v>70.38534545898438</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>82.91824340820312</c:v>
@@ -6071,7 +6071,7 @@
                   <c:v>65.08298492431641</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>56.99051284790039</c:v>
+                  <c:v>56.99050521850586</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>72.40226745605469</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>58.91868209838867</c:v>
+                  <c:v>58.91867828369141</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>42.01551055908203</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>42.96040344238281</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.20473480224609</c:v>
+                  <c:v>79.20472717285156</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>42.01551055908203</c:v>
@@ -6158,10 +6158,10 @@
                   <c:v>42.01551055908203</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>57.63320159912109</c:v>
+                  <c:v>57.63319396972656</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>74.70137023925781</c:v>
+                  <c:v>74.70136260986328</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>64.19295501708984</c:v>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>64.78665924072266</v>
+        <v>64.78665161132812</v>
       </c>
       <c r="G3">
         <v>108</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>44.49957275390625</v>
+        <v>44.49957656860352</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>98.44929999999999</v>
       </c>
       <c r="F13">
-        <v>68.2857666015625</v>
+        <v>68.28575897216797</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.60556030273438</v>
+        <v>47.60555648803711</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>48.17378234863281</v>
+        <v>48.17378616333008</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>72.88765716552734</v>
+        <v>72.88766479492188</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>50.2353630065918</v>
+        <v>50.23535919189453</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>58.54349136352539</v>
+        <v>58.54349899291992</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>74.85118103027344</v>
+        <v>74.85117340087891</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>54.64583969116211</v>
+        <v>54.64584350585938</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>64.75618743896484</v>
+        <v>64.75619506835938</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>58.03444671630859</v>
+        <v>58.03445053100586</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>70.38535308837891</v>
+        <v>70.38534545898438</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>56.99051284790039</v>
+        <v>56.99050521850586</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>58.91868209838867</v>
+        <v>58.91867828369141</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>79.20473480224609</v>
+        <v>79.20472717285156</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>57.63320159912109</v>
+        <v>57.63319396972656</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>74.70137023925781</v>
+        <v>74.70136260986328</v>
       </c>
     </row>
     <row r="99" spans="1:6">
